--- a/public/qgzx/勤工网站测试表格.xlsx
+++ b/public/qgzx/勤工网站测试表格.xlsx
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4306" workbookViewId="0">
-      <selection activeCell="K4332" sqref="K4332"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
